--- a/php/vista/TEMP/HistoriaCliente.xlsx
+++ b/php/vista/TEMP/HistoriaCliente.xlsx
@@ -17,7 +17,21 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="185">
   <si>
-    <t>DESARROLLO - COFRADIA</t>
+    <r>
+      <t xml:space="preserve">DESARROLLO - COFRADIA </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">VACA PRIETO WALTER JALIL</t>
+    </r>
   </si>
   <si>
     <r>
@@ -46,7 +60,7 @@
         <sz val="8"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">11:10
+      <t xml:space="preserve">11:58
 </t>
     </r>
     <r>
@@ -71,7 +85,7 @@
         <sz val="8"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">04-06-2021
+      <t xml:space="preserve">29-06-2021
 </t>
     </r>
     <r>
@@ -96,7 +110,7 @@
         <sz val="8"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">Walter Vaca Prieto</t>
+      <t xml:space="preserve">Vaca Prieto Walter Jalil</t>
     </r>
   </si>
   <si>
@@ -151,7 +165,40 @@
     <t>Tipo de Abono: SPGV - .</t>
   </si>
   <si>
-    <t>.</t>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>Emision Socios Personales Vintag</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Tipo de Abono: EFECTIVO MN</t>
+  </si>
+  <si>
+    <t>Tipo de Abono: SPGV - 1.1.01.02.01.001</t>
+  </si>
+  <si>
+    <t>Emision Socios Personales Classi</t>
+  </si>
+  <si>
+    <t>Emision Servicio de Entreg</t>
+  </si>
+  <si>
+    <t>2021-06-11</t>
+  </si>
+  <si>
+    <t>2021-06-21</t>
+  </si>
+  <si>
+    <t>Emision Socios Personales Vintage</t>
+  </si>
+  <si>
+    <t>Julio</t>
   </si>
   <si>
     <t>2015-01-08</t>
@@ -166,9 +213,6 @@
     <t>2015-01-21</t>
   </si>
   <si>
-    <t>Tipo de Abono: EFECTIVO MN</t>
-  </si>
-  <si>
     <t>2015-02-04</t>
   </si>
   <si>
@@ -211,30 +255,18 @@
     <t>2015-05-05</t>
   </si>
   <si>
-    <t>Mayo</t>
-  </si>
-  <si>
     <t>2015-05-21</t>
   </si>
   <si>
     <t>2015-06-03</t>
   </si>
   <si>
-    <t>Junio</t>
-  </si>
-  <si>
     <t>2015-06-22</t>
   </si>
   <si>
     <t>2015-07-01</t>
   </si>
   <si>
-    <t>Emision Socios Personales Vintage</t>
-  </si>
-  <si>
-    <t>Julio</t>
-  </si>
-  <si>
     <t>2015-07-21</t>
   </si>
   <si>
@@ -598,24 +630,12 @@
     <t>PF</t>
   </si>
   <si>
-    <t>2020-04-30</t>
+    <t>2020-08-31</t>
   </si>
   <si>
     <t>Por Facturar Socios Personales Vintage</t>
   </si>
   <si>
-    <t>2020-05-31</t>
-  </si>
-  <si>
-    <t>2020-06-30</t>
-  </si>
-  <si>
-    <t>2020-07-31</t>
-  </si>
-  <si>
-    <t>2020-08-31</t>
-  </si>
-  <si>
     <t>2020-09-30</t>
   </si>
   <si>
@@ -625,28 +645,22 @@
     <t>2020-11-30</t>
   </si>
   <si>
-    <t>2020-05-28</t>
+    <t>2020-09-28</t>
   </si>
   <si>
     <t>Por Facturar Servicio de Entrega</t>
   </si>
   <si>
-    <t>2020-06-28</t>
-  </si>
-  <si>
-    <t>2020-07-28</t>
-  </si>
-  <si>
-    <t>2020-08-28</t>
-  </si>
-  <si>
-    <t>2020-09-28</t>
-  </si>
-  <si>
     <t>2020-10-28</t>
   </si>
   <si>
     <t>2020-11-28</t>
+  </si>
+  <si>
+    <t>TJ</t>
+  </si>
+  <si>
+    <t>Tipo de Abono: INTERES POR TARJETA</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1125,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AZ213"/>
+  <dimension ref="A1:AZ237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,8 +1139,24 @@
   <sheetData>
     <row r="1" spans="1:52" customHeight="1" ht="50">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">DESARROLLO - COFRADIA </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="false"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FFFFFFFF"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">VACA PRIETO WALTER JALIL</t>
+          </r>
+        </is>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1165,7 +1195,7 @@
               <sz val="8"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">11:10
+            <t xml:space="preserve">11:58
 </t>
           </r>
           <r>
@@ -1190,7 +1220,7 @@
               <sz val="8"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">04-06-2021
+            <t xml:space="preserve">29-06-2021
 </t>
           </r>
           <r>
@@ -1215,7 +1245,7 @@
               <sz val="8"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">Walter Vaca Prieto</t>
+            <t xml:space="preserve">Vaca Prieto Walter Jalil</t>
           </r>
         </is>
       </c>
@@ -1337,25 +1367,25 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>106382</v>
+        <v>14058</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
       </c>
       <c r="G5">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
       </c>
       <c r="I5">
-        <v>52</v>
+        <v>54.93</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -1366,19 +1396,19 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>14058</v>
+      </c>
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>106382</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
       <c r="G6">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="H6" t="s">
         <v>22</v>
@@ -1387,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>58.24</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -1401,34 +1431,34 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7">
-        <v>108102</v>
+        <v>14058</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G7">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I7">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>54.93</v>
       </c>
       <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>2</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:52">
@@ -1436,34 +1466,34 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8">
-        <v>108102</v>
+        <v>14059</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>33.5</v>
       </c>
       <c r="J8">
-        <v>58.24</v>
+        <v>0</v>
       </c>
       <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8">
         <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:52">
@@ -1471,31 +1501,31 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9">
-        <v>109169</v>
+        <v>14059</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G9">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I9">
-        <v>52</v>
+        <v>2.2</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -1506,31 +1536,31 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10">
-        <v>109169</v>
+        <v>14059</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>58.24</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -1541,34 +1571,34 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11">
-        <v>109797</v>
+        <v>14059</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G11">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I11">
-        <v>64.28</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:52">
@@ -1576,31 +1606,31 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12">
-        <v>109797</v>
+        <v>14061</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G12">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="J12">
-        <v>71.99</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -1611,31 +1641,31 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13">
-        <v>110065</v>
+        <v>14062</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
       </c>
       <c r="G13">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I13">
-        <v>54.94</v>
+        <v>54.93</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L13">
         <v>2</v>
@@ -1646,31 +1676,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14">
-        <v>110065</v>
+        <v>14062</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G14">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="H14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I14">
-        <v>2.2</v>
+        <v>33.5</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -1681,31 +1711,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
       </c>
       <c r="D15">
-        <v>110065</v>
+        <v>14062</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G15">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="H15" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>63.99</v>
+        <v>4.93</v>
       </c>
       <c r="K15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -1716,31 +1746,31 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
       <c r="D16">
-        <v>110065</v>
+        <v>14062</v>
       </c>
       <c r="E16" t="s">
         <v>24</v>
       </c>
       <c r="G16">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.01</v>
+        <v>50</v>
       </c>
       <c r="K16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>2</v>
@@ -1751,31 +1781,31 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
       <c r="D17">
-        <v>110933</v>
+        <v>14063</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
       </c>
       <c r="G17">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I17">
-        <v>54.94</v>
+        <v>54.93</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L17">
         <v>2</v>
@@ -1786,22 +1816,22 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
       </c>
       <c r="D18">
-        <v>110933</v>
+        <v>14063</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G18">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I18">
         <v>2.2</v>
@@ -1810,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -1821,31 +1851,31 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
       </c>
       <c r="D19">
-        <v>110933</v>
+        <v>14063</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G19">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>63.99</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -1856,31 +1886,31 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
       </c>
       <c r="D20">
-        <v>110933</v>
+        <v>14063</v>
       </c>
       <c r="E20" t="s">
         <v>24</v>
       </c>
       <c r="G20">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.01</v>
+        <v>57.13</v>
       </c>
       <c r="K20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>2</v>
@@ -1891,25 +1921,25 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
       </c>
       <c r="D21">
-        <v>111833</v>
+        <v>14064</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G21">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I21">
-        <v>54.94</v>
+        <v>54.93</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1918,7 +1948,7 @@
         <v>6</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:52">
@@ -1926,31 +1956,31 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
       </c>
       <c r="D22">
-        <v>111833</v>
+        <v>14064</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G22">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I22">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>54.93</v>
       </c>
       <c r="K22">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -1961,31 +1991,31 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
       <c r="D23">
-        <v>111833</v>
+        <v>14065</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G23">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="J23">
-        <v>63.99</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -1996,34 +2026,34 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="D24">
-        <v>111833</v>
+        <v>14065</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G24">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.01</v>
+        <v>2.2</v>
       </c>
       <c r="K24">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:52">
@@ -2031,34 +2061,34 @@
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="D25">
-        <v>112710</v>
+        <v>14066</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="G25">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I25">
-        <v>54.94</v>
+        <v>54.93</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:52">
@@ -2066,31 +2096,31 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
         <v>15</v>
       </c>
       <c r="D26">
-        <v>112710</v>
+        <v>14066</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G26">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I26">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -2101,34 +2131,34 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
       </c>
       <c r="D27">
-        <v>112710</v>
+        <v>14066</v>
       </c>
       <c r="E27" t="s">
         <v>24</v>
       </c>
       <c r="G27">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>64</v>
+        <v>54.93</v>
       </c>
       <c r="K27">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:52">
@@ -2136,34 +2166,34 @@
         <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
         <v>15</v>
       </c>
       <c r="D28">
-        <v>113552</v>
+        <v>14067</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="G28">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I28">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:52">
@@ -2171,31 +2201,31 @@
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
       </c>
       <c r="D29">
-        <v>113552</v>
+        <v>14067</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G29">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I29">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -2206,34 +2236,34 @@
         <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
       </c>
       <c r="D30">
-        <v>113552</v>
+        <v>14067</v>
       </c>
       <c r="E30" t="s">
         <v>24</v>
       </c>
       <c r="G30">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.01</v>
+        <v>2.2</v>
       </c>
       <c r="K30">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:52">
@@ -2241,34 +2271,34 @@
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
       </c>
       <c r="D31">
-        <v>113552</v>
+        <v>106382</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G31">
         <v>2015</v>
       </c>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="J31">
-        <v>63.99</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:52">
@@ -2276,34 +2306,34 @@
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
         <v>15</v>
       </c>
       <c r="D32">
-        <v>114372</v>
+        <v>106382</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="G32">
         <v>2015</v>
       </c>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="I32">
-        <v>54.94</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>58.24</v>
       </c>
       <c r="K32">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:52">
@@ -2311,31 +2341,31 @@
         <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
       </c>
       <c r="D33">
-        <v>114372</v>
+        <v>108102</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G33">
         <v>2015</v>
       </c>
       <c r="H33" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33">
         <v>52</v>
       </c>
-      <c r="I33">
-        <v>2.2</v>
-      </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -2346,31 +2376,31 @@
         <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
         <v>15</v>
       </c>
       <c r="D34">
-        <v>114372</v>
+        <v>108102</v>
       </c>
       <c r="E34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G34">
         <v>2015</v>
       </c>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>64</v>
+        <v>58.24</v>
       </c>
       <c r="K34">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -2381,34 +2411,34 @@
         <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
       </c>
       <c r="D35">
-        <v>115185</v>
+        <v>109169</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G35">
         <v>2015</v>
       </c>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I35">
-        <v>54.94</v>
+        <v>52</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:52">
@@ -2416,31 +2446,31 @@
         <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
         <v>15</v>
       </c>
       <c r="D36">
-        <v>115185</v>
+        <v>109169</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G36">
         <v>2015</v>
       </c>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I36">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>58.24</v>
       </c>
       <c r="K36">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -2451,31 +2481,31 @@
         <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
         <v>15</v>
       </c>
       <c r="D37">
-        <v>115185</v>
+        <v>109797</v>
       </c>
       <c r="E37" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G37">
         <v>2015</v>
       </c>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>64.28</v>
       </c>
       <c r="J37">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -2486,34 +2516,34 @@
         <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
         <v>15</v>
       </c>
       <c r="D38">
-        <v>116003</v>
+        <v>109797</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="G38">
         <v>2015</v>
       </c>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="I38">
-        <v>54.94</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>71.99</v>
       </c>
       <c r="K38">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="L38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:52">
@@ -2521,34 +2551,34 @@
         <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
         <v>15</v>
       </c>
       <c r="D39">
-        <v>116003</v>
+        <v>110065</v>
       </c>
       <c r="E39" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G39">
         <v>2015</v>
       </c>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="I39">
-        <v>2.2</v>
+        <v>54.94</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:52">
@@ -2556,31 +2586,31 @@
         <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
         <v>15</v>
       </c>
       <c r="D40">
-        <v>116003</v>
+        <v>110065</v>
       </c>
       <c r="E40" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="G40">
         <v>2015</v>
       </c>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="J40">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -2591,34 +2621,34 @@
         <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
         <v>15</v>
       </c>
       <c r="D41">
-        <v>116828</v>
+        <v>110065</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="G41">
         <v>2015</v>
       </c>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I41">
-        <v>54.94</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>63.99</v>
       </c>
       <c r="K41">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:52">
@@ -2626,34 +2656,34 @@
         <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
         <v>15</v>
       </c>
       <c r="D42">
-        <v>116828</v>
+        <v>110065</v>
       </c>
       <c r="E42" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G42">
         <v>2015</v>
       </c>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I42">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K42">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:52">
@@ -2661,34 +2691,34 @@
         <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
         <v>15</v>
       </c>
       <c r="D43">
-        <v>116828</v>
+        <v>110933</v>
       </c>
       <c r="E43" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G43">
         <v>2015</v>
       </c>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J43">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:52">
@@ -2696,34 +2726,34 @@
         <v>13</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
         <v>15</v>
       </c>
       <c r="D44">
-        <v>117610</v>
+        <v>110933</v>
       </c>
       <c r="E44" t="s">
         <v>45</v>
       </c>
       <c r="G44">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H44" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I44">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:52">
@@ -2731,31 +2761,31 @@
         <v>13</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
         <v>15</v>
       </c>
       <c r="D45">
-        <v>117610</v>
+        <v>110933</v>
       </c>
       <c r="E45" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G45">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H45" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I45">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>63.99</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L45">
         <v>1</v>
@@ -2766,34 +2796,34 @@
         <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s">
         <v>15</v>
       </c>
       <c r="D46">
-        <v>117610</v>
+        <v>110933</v>
       </c>
       <c r="E46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G46">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H46" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>64</v>
+        <v>0.01</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:52">
@@ -2801,22 +2831,22 @@
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
         <v>15</v>
       </c>
       <c r="D47">
-        <v>118387</v>
+        <v>111833</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G47">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H47" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I47">
         <v>54.94</v>
@@ -2825,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L47">
         <v>2</v>
@@ -2836,22 +2866,22 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
         <v>15</v>
       </c>
       <c r="D48">
-        <v>118387</v>
+        <v>111833</v>
       </c>
       <c r="E48" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="G48">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H48" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I48">
         <v>2.2</v>
@@ -2860,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -2871,31 +2901,31 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
         <v>15</v>
       </c>
       <c r="D49">
-        <v>118387</v>
+        <v>111833</v>
       </c>
       <c r="E49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G49">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H49" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>64</v>
+        <v>63.99</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L49">
         <v>1</v>
@@ -2906,31 +2936,31 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
         <v>15</v>
       </c>
       <c r="D50">
-        <v>119121</v>
+        <v>111833</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="G50">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H50" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I50">
-        <v>54.94</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K50">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L50">
         <v>2</v>
@@ -2941,34 +2971,34 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
         <v>15</v>
       </c>
       <c r="D51">
-        <v>119121</v>
+        <v>112710</v>
       </c>
       <c r="E51" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G51">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I51">
-        <v>2.2</v>
+        <v>54.94</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:52">
@@ -2976,31 +3006,31 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
         <v>15</v>
       </c>
       <c r="D52">
-        <v>119121</v>
+        <v>112710</v>
       </c>
       <c r="E52" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G52">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="J52">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L52">
         <v>1</v>
@@ -3011,34 +3041,34 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
         <v>15</v>
       </c>
       <c r="D53">
-        <v>119870</v>
+        <v>112710</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="G53">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H53" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I53">
-        <v>54.94</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="K53">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L53">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:52">
@@ -3046,34 +3076,34 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
         <v>15</v>
       </c>
       <c r="D54">
-        <v>119870</v>
+        <v>113552</v>
       </c>
       <c r="E54" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G54">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H54" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I54">
-        <v>2.2</v>
+        <v>54.94</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:52">
@@ -3081,31 +3111,31 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C55" t="s">
         <v>15</v>
       </c>
       <c r="D55">
-        <v>119870</v>
+        <v>113552</v>
       </c>
       <c r="E55" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G55">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H55" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="J55">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L55">
         <v>1</v>
@@ -3116,34 +3146,34 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C56" t="s">
         <v>15</v>
       </c>
       <c r="D56">
-        <v>120609</v>
+        <v>113552</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="G56">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H56" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="I56">
-        <v>54.94</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K56">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:52">
@@ -3151,34 +3181,34 @@
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
         <v>15</v>
       </c>
       <c r="D57">
-        <v>120609</v>
+        <v>113552</v>
       </c>
       <c r="E57" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G57">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H57" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="I57">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>63.99</v>
       </c>
       <c r="K57">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:52">
@@ -3186,34 +3216,34 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C58" t="s">
         <v>15</v>
       </c>
       <c r="D58">
-        <v>120609</v>
+        <v>114372</v>
       </c>
       <c r="E58" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G58">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H58" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J58">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:52">
@@ -3221,34 +3251,34 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C59" t="s">
         <v>15</v>
       </c>
       <c r="D59">
-        <v>121319</v>
+        <v>114372</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G59">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H59" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="I59">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L59">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:52">
@@ -3256,31 +3286,31 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C60" t="s">
         <v>15</v>
       </c>
       <c r="D60">
-        <v>121319</v>
+        <v>114372</v>
       </c>
       <c r="E60" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G60">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H60" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="I60">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="K60">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L60">
         <v>1</v>
@@ -3291,34 +3321,34 @@
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C61" t="s">
         <v>15</v>
       </c>
       <c r="D61">
-        <v>121319</v>
+        <v>115185</v>
       </c>
       <c r="E61" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G61">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H61" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J61">
-        <v>65.14</v>
+        <v>0</v>
       </c>
       <c r="K61">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:52">
@@ -3326,34 +3356,34 @@
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C62" t="s">
         <v>15</v>
       </c>
       <c r="D62">
-        <v>122018</v>
+        <v>115185</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G62">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I62">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:52">
@@ -3361,31 +3391,31 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C63" t="s">
         <v>15</v>
       </c>
       <c r="D63">
-        <v>122018</v>
+        <v>115185</v>
       </c>
       <c r="E63" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G63">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I63">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="K63">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L63">
         <v>1</v>
@@ -3396,34 +3426,34 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C64" t="s">
         <v>15</v>
       </c>
       <c r="D64">
-        <v>122018</v>
+        <v>116003</v>
       </c>
       <c r="E64" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G64">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J64">
-        <v>65.14</v>
+        <v>0</v>
       </c>
       <c r="K64">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:52">
@@ -3431,34 +3461,34 @@
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s">
         <v>15</v>
       </c>
       <c r="D65">
-        <v>122721</v>
+        <v>116003</v>
       </c>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G65">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H65" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="I65">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:52">
@@ -3466,31 +3496,31 @@
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C66" t="s">
         <v>15</v>
       </c>
       <c r="D66">
-        <v>122721</v>
+        <v>116003</v>
       </c>
       <c r="E66" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G66">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H66" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="I66">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="K66">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L66">
         <v>1</v>
@@ -3501,34 +3531,34 @@
         <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C67" t="s">
         <v>15</v>
       </c>
       <c r="D67">
-        <v>122721</v>
+        <v>116828</v>
       </c>
       <c r="E67" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G67">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H67" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J67">
-        <v>65.14</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:52">
@@ -3536,34 +3566,34 @@
         <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C68" t="s">
         <v>15</v>
       </c>
       <c r="D68">
-        <v>123409</v>
+        <v>116828</v>
       </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G68">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H68" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="I68">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L68">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:52">
@@ -3571,31 +3601,31 @@
         <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C69" t="s">
         <v>15</v>
       </c>
       <c r="D69">
-        <v>123409</v>
+        <v>116828</v>
       </c>
       <c r="E69" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G69">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H69" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="I69">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="K69">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L69">
         <v>1</v>
@@ -3606,34 +3636,34 @@
         <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C70" t="s">
         <v>15</v>
       </c>
       <c r="D70">
-        <v>123409</v>
+        <v>117610</v>
       </c>
       <c r="E70" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G70">
         <v>2016</v>
       </c>
       <c r="H70" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J70">
-        <v>65.14</v>
+        <v>0</v>
       </c>
       <c r="K70">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:52">
@@ -3641,34 +3671,34 @@
         <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C71" t="s">
         <v>15</v>
       </c>
       <c r="D71">
-        <v>124106</v>
+        <v>117610</v>
       </c>
       <c r="E71" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G71">
         <v>2016</v>
       </c>
       <c r="H71" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="I71">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L71">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:52">
@@ -3676,31 +3706,31 @@
         <v>13</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C72" t="s">
         <v>15</v>
       </c>
       <c r="D72">
-        <v>124106</v>
+        <v>117610</v>
       </c>
       <c r="E72" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G72">
         <v>2016</v>
       </c>
       <c r="H72" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="I72">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="K72">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L72">
         <v>1</v>
@@ -3711,34 +3741,34 @@
         <v>13</v>
       </c>
       <c r="B73" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C73" t="s">
         <v>15</v>
       </c>
       <c r="D73">
-        <v>124106</v>
+        <v>118387</v>
       </c>
       <c r="E73" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G73">
         <v>2016</v>
       </c>
       <c r="H73" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J73">
-        <v>65.14</v>
+        <v>0</v>
       </c>
       <c r="K73">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L73">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:52">
@@ -3746,34 +3776,34 @@
         <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C74" t="s">
         <v>15</v>
       </c>
       <c r="D74">
-        <v>124798</v>
+        <v>118387</v>
       </c>
       <c r="E74" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G74">
         <v>2016</v>
       </c>
       <c r="H74" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I74">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L74">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:52">
@@ -3781,31 +3811,31 @@
         <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C75" t="s">
         <v>15</v>
       </c>
       <c r="D75">
-        <v>124798</v>
+        <v>118387</v>
       </c>
       <c r="E75" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G75">
         <v>2016</v>
       </c>
       <c r="H75" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I75">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="K75">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L75">
         <v>1</v>
@@ -3816,34 +3846,34 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C76" t="s">
         <v>15</v>
       </c>
       <c r="D76">
-        <v>124798</v>
+        <v>119121</v>
       </c>
       <c r="E76" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G76">
         <v>2016</v>
       </c>
       <c r="H76" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J76">
-        <v>65.14</v>
+        <v>0</v>
       </c>
       <c r="K76">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="L76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:52">
@@ -3851,31 +3881,31 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C77" t="s">
         <v>15</v>
       </c>
       <c r="D77">
-        <v>125303</v>
+        <v>119121</v>
       </c>
       <c r="E77" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="G77">
         <v>2016</v>
       </c>
       <c r="H77" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="I77">
-        <v>63.16</v>
+        <v>2.2</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="L77">
         <v>1</v>
@@ -3886,31 +3916,31 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C78" t="s">
         <v>15</v>
       </c>
       <c r="D78">
-        <v>125303</v>
+        <v>119121</v>
       </c>
       <c r="E78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G78">
         <v>2016</v>
       </c>
       <c r="H78" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="K78">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -3921,22 +3951,22 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C79" t="s">
         <v>15</v>
       </c>
       <c r="D79">
-        <v>125507</v>
+        <v>119870</v>
       </c>
       <c r="E79" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G79">
         <v>2016</v>
       </c>
       <c r="H79" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I79">
         <v>54.94</v>
@@ -3945,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L79">
         <v>2</v>
@@ -3956,13 +3986,13 @@
         <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C80" t="s">
         <v>15</v>
       </c>
       <c r="D80">
-        <v>125507</v>
+        <v>119870</v>
       </c>
       <c r="E80" t="s">
         <v>16</v>
@@ -3971,7 +4001,7 @@
         <v>2016</v>
       </c>
       <c r="H80" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I80">
         <v>2.2</v>
@@ -3980,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L80">
         <v>1</v>
@@ -3991,31 +4021,31 @@
         <v>13</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C81" t="s">
         <v>15</v>
       </c>
       <c r="D81">
-        <v>125507</v>
+        <v>119870</v>
       </c>
       <c r="E81" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G81">
         <v>2016</v>
       </c>
       <c r="H81" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>65.14</v>
+        <v>64</v>
       </c>
       <c r="K81">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L81">
         <v>1</v>
@@ -4026,22 +4056,22 @@
         <v>13</v>
       </c>
       <c r="B82" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C82" t="s">
         <v>15</v>
       </c>
       <c r="D82">
-        <v>126178</v>
+        <v>120609</v>
       </c>
       <c r="E82" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G82">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H82" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I82">
         <v>54.94</v>
@@ -4050,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L82">
         <v>2</v>
@@ -4061,22 +4091,22 @@
         <v>13</v>
       </c>
       <c r="B83" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C83" t="s">
         <v>15</v>
       </c>
       <c r="D83">
-        <v>126178</v>
+        <v>120609</v>
       </c>
       <c r="E83" t="s">
         <v>16</v>
       </c>
       <c r="G83">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H83" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I83">
         <v>2.2</v>
@@ -4085,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="K83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L83">
         <v>1</v>
@@ -4096,31 +4126,31 @@
         <v>13</v>
       </c>
       <c r="B84" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C84" t="s">
         <v>15</v>
       </c>
       <c r="D84">
-        <v>126178</v>
+        <v>120609</v>
       </c>
       <c r="E84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G84">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H84" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>65.14</v>
+        <v>64</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L84">
         <v>1</v>
@@ -4131,22 +4161,22 @@
         <v>13</v>
       </c>
       <c r="B85" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C85" t="s">
         <v>15</v>
       </c>
       <c r="D85">
-        <v>126862</v>
+        <v>121319</v>
       </c>
       <c r="E85" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G85">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H85" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I85">
         <v>54.94</v>
@@ -4155,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L85">
         <v>2</v>
@@ -4166,22 +4196,22 @@
         <v>13</v>
       </c>
       <c r="B86" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C86" t="s">
         <v>15</v>
       </c>
       <c r="D86">
-        <v>126862</v>
+        <v>121319</v>
       </c>
       <c r="E86" t="s">
         <v>16</v>
       </c>
       <c r="G86">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H86" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I86">
         <v>2.2</v>
@@ -4190,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L86">
         <v>1</v>
@@ -4201,22 +4231,22 @@
         <v>13</v>
       </c>
       <c r="B87" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C87" t="s">
         <v>15</v>
       </c>
       <c r="D87">
-        <v>126862</v>
+        <v>121319</v>
       </c>
       <c r="E87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G87">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H87" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -4225,7 +4255,7 @@
         <v>65.14</v>
       </c>
       <c r="K87">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L87">
         <v>1</v>
@@ -4236,22 +4266,22 @@
         <v>13</v>
       </c>
       <c r="B88" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C88" t="s">
         <v>15</v>
       </c>
       <c r="D88">
-        <v>127514</v>
+        <v>122018</v>
       </c>
       <c r="E88" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G88">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I88">
         <v>54.94</v>
@@ -4260,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="K88">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L88">
         <v>2</v>
@@ -4271,22 +4301,22 @@
         <v>13</v>
       </c>
       <c r="B89" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C89" t="s">
         <v>15</v>
       </c>
       <c r="D89">
-        <v>127514</v>
+        <v>122018</v>
       </c>
       <c r="E89" t="s">
         <v>16</v>
       </c>
       <c r="G89">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I89">
         <v>2.2</v>
@@ -4295,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="K89">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L89">
         <v>1</v>
@@ -4306,22 +4336,22 @@
         <v>13</v>
       </c>
       <c r="B90" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C90" t="s">
         <v>15</v>
       </c>
       <c r="D90">
-        <v>127514</v>
+        <v>122018</v>
       </c>
       <c r="E90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G90">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -4330,7 +4360,7 @@
         <v>65.14</v>
       </c>
       <c r="K90">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L90">
         <v>1</v>
@@ -4341,22 +4371,22 @@
         <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C91" t="s">
         <v>15</v>
       </c>
       <c r="D91">
-        <v>128177</v>
+        <v>122721</v>
       </c>
       <c r="E91" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G91">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H91" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I91">
         <v>54.94</v>
@@ -4365,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="K91">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L91">
         <v>2</v>
@@ -4376,22 +4406,22 @@
         <v>13</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C92" t="s">
         <v>15</v>
       </c>
       <c r="D92">
-        <v>128177</v>
+        <v>122721</v>
       </c>
       <c r="E92" t="s">
         <v>16</v>
       </c>
       <c r="G92">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H92" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I92">
         <v>2.2</v>
@@ -4400,7 +4430,7 @@
         <v>0</v>
       </c>
       <c r="K92">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L92">
         <v>1</v>
@@ -4411,22 +4441,22 @@
         <v>13</v>
       </c>
       <c r="B93" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C93" t="s">
         <v>15</v>
       </c>
       <c r="D93">
-        <v>128177</v>
+        <v>122721</v>
       </c>
       <c r="E93" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G93">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H93" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -4435,7 +4465,7 @@
         <v>65.14</v>
       </c>
       <c r="K93">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L93">
         <v>1</v>
@@ -4446,22 +4476,22 @@
         <v>13</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C94" t="s">
         <v>15</v>
       </c>
       <c r="D94">
-        <v>128831</v>
+        <v>123409</v>
       </c>
       <c r="E94" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G94">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H94" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="I94">
         <v>54.94</v>
@@ -4470,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L94">
         <v>2</v>
@@ -4481,22 +4511,22 @@
         <v>13</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C95" t="s">
         <v>15</v>
       </c>
       <c r="D95">
-        <v>128831</v>
+        <v>123409</v>
       </c>
       <c r="E95" t="s">
         <v>16</v>
       </c>
       <c r="G95">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H95" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="I95">
         <v>2.2</v>
@@ -4505,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L95">
         <v>1</v>
@@ -4516,22 +4546,22 @@
         <v>13</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C96" t="s">
         <v>15</v>
       </c>
       <c r="D96">
-        <v>128831</v>
+        <v>123409</v>
       </c>
       <c r="E96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G96">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H96" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -4540,7 +4570,7 @@
         <v>65.14</v>
       </c>
       <c r="K96">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L96">
         <v>1</v>
@@ -4551,22 +4581,22 @@
         <v>13</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C97" t="s">
         <v>15</v>
       </c>
       <c r="D97">
-        <v>129492</v>
+        <v>124106</v>
       </c>
       <c r="E97" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G97">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H97" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="I97">
         <v>54.94</v>
@@ -4575,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="K97">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L97">
         <v>2</v>
@@ -4586,22 +4616,22 @@
         <v>13</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C98" t="s">
         <v>15</v>
       </c>
       <c r="D98">
-        <v>129492</v>
+        <v>124106</v>
       </c>
       <c r="E98" t="s">
         <v>16</v>
       </c>
       <c r="G98">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H98" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="I98">
         <v>2.2</v>
@@ -4610,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="K98">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L98">
         <v>1</v>
@@ -4621,31 +4651,31 @@
         <v>13</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C99" t="s">
         <v>15</v>
       </c>
       <c r="D99">
-        <v>129492</v>
+        <v>124106</v>
       </c>
       <c r="E99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G99">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H99" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>63.99</v>
+        <v>65.14</v>
       </c>
       <c r="K99">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L99">
         <v>1</v>
@@ -4656,22 +4686,22 @@
         <v>13</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C100" t="s">
         <v>15</v>
       </c>
       <c r="D100">
-        <v>130160</v>
+        <v>124798</v>
       </c>
       <c r="E100" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G100">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H100" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="I100">
         <v>54.94</v>
@@ -4680,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="K100">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L100">
         <v>2</v>
@@ -4691,22 +4721,22 @@
         <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C101" t="s">
         <v>15</v>
       </c>
       <c r="D101">
-        <v>130160</v>
+        <v>124798</v>
       </c>
       <c r="E101" t="s">
         <v>16</v>
       </c>
       <c r="G101">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H101" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="I101">
         <v>2.2</v>
@@ -4715,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="K101">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L101">
         <v>1</v>
@@ -4726,31 +4756,31 @@
         <v>13</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C102" t="s">
         <v>15</v>
       </c>
       <c r="D102">
-        <v>130160</v>
+        <v>124798</v>
       </c>
       <c r="E102" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G102">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H102" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102">
-        <v>63.99</v>
+        <v>65.14</v>
       </c>
       <c r="K102">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L102">
         <v>1</v>
@@ -4761,34 +4791,34 @@
         <v>13</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C103" t="s">
         <v>15</v>
       </c>
       <c r="D103">
-        <v>130819</v>
+        <v>125303</v>
       </c>
       <c r="E103" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="G103">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H103" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="I103">
-        <v>54.94</v>
+        <v>63.16</v>
       </c>
       <c r="J103">
         <v>0</v>
       </c>
       <c r="K103">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:52">
@@ -4796,31 +4826,31 @@
         <v>13</v>
       </c>
       <c r="B104" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C104" t="s">
         <v>15</v>
       </c>
       <c r="D104">
-        <v>130819</v>
+        <v>125303</v>
       </c>
       <c r="E104" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G104">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H104" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="I104">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="K104">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L104">
         <v>1</v>
@@ -4831,34 +4861,34 @@
         <v>13</v>
       </c>
       <c r="B105" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C105" t="s">
         <v>15</v>
       </c>
       <c r="D105">
-        <v>130819</v>
+        <v>125507</v>
       </c>
       <c r="E105" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G105">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H105" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J105">
-        <v>63.99</v>
+        <v>0</v>
       </c>
       <c r="K105">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L105">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:52">
@@ -4866,34 +4896,34 @@
         <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C106" t="s">
         <v>15</v>
       </c>
       <c r="D106">
-        <v>131483</v>
+        <v>125507</v>
       </c>
       <c r="E106" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G106">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H106" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="I106">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J106">
         <v>0</v>
       </c>
       <c r="K106">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L106">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:52">
@@ -4901,31 +4931,31 @@
         <v>13</v>
       </c>
       <c r="B107" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C107" t="s">
         <v>15</v>
       </c>
       <c r="D107">
-        <v>131483</v>
+        <v>125507</v>
       </c>
       <c r="E107" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G107">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H107" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="I107">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>65.14</v>
       </c>
       <c r="K107">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L107">
         <v>1</v>
@@ -4936,34 +4966,34 @@
         <v>13</v>
       </c>
       <c r="B108" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C108" t="s">
         <v>15</v>
       </c>
       <c r="D108">
-        <v>131483</v>
+        <v>126178</v>
       </c>
       <c r="E108" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G108">
         <v>2017</v>
       </c>
       <c r="H108" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J108">
-        <v>63.99</v>
+        <v>0</v>
       </c>
       <c r="K108">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L108">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:52">
@@ -4971,34 +5001,34 @@
         <v>13</v>
       </c>
       <c r="B109" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C109" t="s">
         <v>15</v>
       </c>
       <c r="D109">
-        <v>132132</v>
+        <v>126178</v>
       </c>
       <c r="E109" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G109">
         <v>2017</v>
       </c>
       <c r="H109" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="I109">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J109">
         <v>0</v>
       </c>
       <c r="K109">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L109">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:52">
@@ -5006,31 +5036,31 @@
         <v>13</v>
       </c>
       <c r="B110" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C110" t="s">
         <v>15</v>
       </c>
       <c r="D110">
-        <v>132132</v>
+        <v>126178</v>
       </c>
       <c r="E110" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G110">
         <v>2017</v>
       </c>
       <c r="H110" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="I110">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>65.14</v>
       </c>
       <c r="K110">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L110">
         <v>1</v>
@@ -5041,34 +5071,34 @@
         <v>13</v>
       </c>
       <c r="B111" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C111" t="s">
         <v>15</v>
       </c>
       <c r="D111">
-        <v>132132</v>
+        <v>126862</v>
       </c>
       <c r="E111" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G111">
         <v>2017</v>
       </c>
       <c r="H111" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J111">
-        <v>63.99</v>
+        <v>0</v>
       </c>
       <c r="K111">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:52">
@@ -5076,34 +5106,34 @@
         <v>13</v>
       </c>
       <c r="B112" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C112" t="s">
         <v>15</v>
       </c>
       <c r="D112">
-        <v>132776</v>
+        <v>126862</v>
       </c>
       <c r="E112" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G112">
         <v>2017</v>
       </c>
       <c r="H112" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I112">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J112">
         <v>0</v>
       </c>
       <c r="K112">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L112">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:52">
@@ -5111,31 +5141,31 @@
         <v>13</v>
       </c>
       <c r="B113" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C113" t="s">
         <v>15</v>
       </c>
       <c r="D113">
-        <v>132776</v>
+        <v>126862</v>
       </c>
       <c r="E113" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G113">
         <v>2017</v>
       </c>
       <c r="H113" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I113">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>65.14</v>
       </c>
       <c r="K113">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L113">
         <v>1</v>
@@ -5146,34 +5176,34 @@
         <v>13</v>
       </c>
       <c r="B114" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C114" t="s">
         <v>15</v>
       </c>
       <c r="D114">
-        <v>132776</v>
+        <v>127514</v>
       </c>
       <c r="E114" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G114">
         <v>2017</v>
       </c>
       <c r="H114" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J114">
-        <v>63.99</v>
+        <v>0</v>
       </c>
       <c r="K114">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="L114">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:52">
@@ -5181,34 +5211,34 @@
         <v>13</v>
       </c>
       <c r="B115" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C115" t="s">
         <v>15</v>
       </c>
       <c r="D115">
-        <v>133405</v>
+        <v>127514</v>
       </c>
       <c r="E115" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G115">
         <v>2017</v>
       </c>
       <c r="H115" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="I115">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J115">
         <v>0</v>
       </c>
       <c r="K115">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="L115">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:52">
@@ -5216,31 +5246,31 @@
         <v>13</v>
       </c>
       <c r="B116" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C116" t="s">
         <v>15</v>
       </c>
       <c r="D116">
-        <v>133405</v>
+        <v>127514</v>
       </c>
       <c r="E116" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G116">
         <v>2017</v>
       </c>
       <c r="H116" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="I116">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>65.14</v>
       </c>
       <c r="K116">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="L116">
         <v>1</v>
@@ -5251,34 +5281,34 @@
         <v>13</v>
       </c>
       <c r="B117" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C117" t="s">
         <v>15</v>
       </c>
       <c r="D117">
-        <v>133405</v>
+        <v>128177</v>
       </c>
       <c r="E117" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G117">
         <v>2017</v>
       </c>
       <c r="H117" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J117">
-        <v>63.99</v>
+        <v>0</v>
       </c>
       <c r="K117">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L117">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:52">
@@ -5286,34 +5316,34 @@
         <v>13</v>
       </c>
       <c r="B118" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C118" t="s">
         <v>15</v>
       </c>
       <c r="D118">
-        <v>134047</v>
+        <v>128177</v>
       </c>
       <c r="E118" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G118">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H118" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I118">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J118">
         <v>0</v>
       </c>
       <c r="K118">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:52">
@@ -5321,31 +5351,31 @@
         <v>13</v>
       </c>
       <c r="B119" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C119" t="s">
         <v>15</v>
       </c>
       <c r="D119">
-        <v>134047</v>
+        <v>128177</v>
       </c>
       <c r="E119" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G119">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H119" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I119">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>65.14</v>
       </c>
       <c r="K119">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L119">
         <v>1</v>
@@ -5356,34 +5386,34 @@
         <v>13</v>
       </c>
       <c r="B120" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C120" t="s">
         <v>15</v>
       </c>
       <c r="D120">
-        <v>134047</v>
+        <v>128831</v>
       </c>
       <c r="E120" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G120">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H120" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J120">
-        <v>63.99</v>
+        <v>0</v>
       </c>
       <c r="K120">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L120">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:52">
@@ -5391,34 +5421,34 @@
         <v>13</v>
       </c>
       <c r="B121" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C121" t="s">
         <v>15</v>
       </c>
       <c r="D121">
-        <v>134688</v>
+        <v>128831</v>
       </c>
       <c r="E121" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G121">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H121" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I121">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J121">
         <v>0</v>
       </c>
       <c r="K121">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L121">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:52">
@@ -5426,31 +5456,31 @@
         <v>13</v>
       </c>
       <c r="B122" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C122" t="s">
         <v>15</v>
       </c>
       <c r="D122">
-        <v>134688</v>
+        <v>128831</v>
       </c>
       <c r="E122" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G122">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H122" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I122">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J122">
-        <v>0</v>
+        <v>65.14</v>
       </c>
       <c r="K122">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L122">
         <v>1</v>
@@ -5461,34 +5491,34 @@
         <v>13</v>
       </c>
       <c r="B123" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C123" t="s">
         <v>15</v>
       </c>
       <c r="D123">
-        <v>134688</v>
+        <v>129492</v>
       </c>
       <c r="E123" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G123">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H123" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J123">
-        <v>63.99</v>
+        <v>0</v>
       </c>
       <c r="K123">
+        <v>6</v>
+      </c>
+      <c r="L123">
         <v>2</v>
-      </c>
-      <c r="L123">
-        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:52">
@@ -5496,34 +5526,34 @@
         <v>13</v>
       </c>
       <c r="B124" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C124" t="s">
         <v>15</v>
       </c>
       <c r="D124">
-        <v>135327</v>
+        <v>129492</v>
       </c>
       <c r="E124" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G124">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H124" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I124">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J124">
         <v>0</v>
       </c>
       <c r="K124">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L124">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:52">
@@ -5531,31 +5561,31 @@
         <v>13</v>
       </c>
       <c r="B125" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C125" t="s">
         <v>15</v>
       </c>
       <c r="D125">
-        <v>135327</v>
+        <v>129492</v>
       </c>
       <c r="E125" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G125">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H125" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I125">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>63.99</v>
       </c>
       <c r="K125">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L125">
         <v>1</v>
@@ -5566,34 +5596,34 @@
         <v>13</v>
       </c>
       <c r="B126" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C126" t="s">
         <v>15</v>
       </c>
       <c r="D126">
-        <v>135327</v>
+        <v>130160</v>
       </c>
       <c r="E126" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G126">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H126" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J126">
-        <v>63.99</v>
+        <v>0</v>
       </c>
       <c r="K126">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L126">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:52">
@@ -5601,34 +5631,34 @@
         <v>13</v>
       </c>
       <c r="B127" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C127" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="D127">
-        <v>184</v>
+        <v>130160</v>
       </c>
       <c r="E127" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G127">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H127" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I127">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J127">
         <v>0</v>
       </c>
       <c r="K127">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L127">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:52">
@@ -5636,31 +5666,31 @@
         <v>13</v>
       </c>
       <c r="B128" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C128" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="D128">
-        <v>184</v>
+        <v>130160</v>
       </c>
       <c r="E128" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G128">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H128" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I128">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J128">
-        <v>0</v>
+        <v>63.99</v>
       </c>
       <c r="K128">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L128">
         <v>1</v>
@@ -5671,34 +5701,34 @@
         <v>13</v>
       </c>
       <c r="B129" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C129" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="D129">
-        <v>184</v>
+        <v>130819</v>
       </c>
       <c r="E129" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G129">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H129" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J129">
-        <v>63.99</v>
+        <v>0</v>
       </c>
       <c r="K129">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L129">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:52">
@@ -5706,34 +5736,34 @@
         <v>13</v>
       </c>
       <c r="B130" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C130" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="D130">
-        <v>848</v>
+        <v>130819</v>
       </c>
       <c r="E130" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G130">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H130" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="I130">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J130">
         <v>0</v>
       </c>
       <c r="K130">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L130">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:52">
@@ -5741,31 +5771,31 @@
         <v>13</v>
       </c>
       <c r="B131" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C131" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="D131">
-        <v>848</v>
+        <v>130819</v>
       </c>
       <c r="E131" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G131">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H131" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="I131">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J131">
-        <v>0</v>
+        <v>63.99</v>
       </c>
       <c r="K131">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L131">
         <v>1</v>
@@ -5776,34 +5806,34 @@
         <v>13</v>
       </c>
       <c r="B132" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C132" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="D132">
-        <v>848</v>
+        <v>131483</v>
       </c>
       <c r="E132" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G132">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H132" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J132">
-        <v>63.99</v>
+        <v>0</v>
       </c>
       <c r="K132">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L132">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:52">
@@ -5811,34 +5841,34 @@
         <v>13</v>
       </c>
       <c r="B133" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C133" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="D133">
-        <v>1504</v>
+        <v>131483</v>
       </c>
       <c r="E133" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G133">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H133" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="I133">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J133">
         <v>0</v>
       </c>
       <c r="K133">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L133">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:52">
@@ -5846,31 +5876,31 @@
         <v>13</v>
       </c>
       <c r="B134" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C134" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="D134">
-        <v>1504</v>
+        <v>131483</v>
       </c>
       <c r="E134" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G134">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H134" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="I134">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J134">
-        <v>0</v>
+        <v>63.99</v>
       </c>
       <c r="K134">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L134">
         <v>1</v>
@@ -5881,34 +5911,34 @@
         <v>13</v>
       </c>
       <c r="B135" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C135" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="D135">
-        <v>1504</v>
+        <v>132132</v>
       </c>
       <c r="E135" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G135">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H135" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J135">
-        <v>63.99</v>
+        <v>0</v>
       </c>
       <c r="K135">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L135">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:52">
@@ -5916,34 +5946,34 @@
         <v>13</v>
       </c>
       <c r="B136" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C136" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="D136">
-        <v>2173</v>
+        <v>132132</v>
       </c>
       <c r="E136" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G136">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H136" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I136">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J136">
         <v>0</v>
       </c>
       <c r="K136">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L136">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:52">
@@ -5951,31 +5981,31 @@
         <v>13</v>
       </c>
       <c r="B137" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C137" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="D137">
-        <v>2173</v>
+        <v>132132</v>
       </c>
       <c r="E137" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G137">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H137" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I137">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J137">
-        <v>0</v>
+        <v>63.99</v>
       </c>
       <c r="K137">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L137">
         <v>1</v>
@@ -5986,34 +6016,34 @@
         <v>13</v>
       </c>
       <c r="B138" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C138" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="D138">
-        <v>2173</v>
+        <v>132776</v>
       </c>
       <c r="E138" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G138">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H138" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J138">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="K138">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L138">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:52">
@@ -6021,34 +6051,34 @@
         <v>13</v>
       </c>
       <c r="B139" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C139" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="D139">
-        <v>2840</v>
+        <v>132776</v>
       </c>
       <c r="E139" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G139">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H139" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="I139">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J139">
         <v>0</v>
       </c>
       <c r="K139">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L139">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:52">
@@ -6056,31 +6086,31 @@
         <v>13</v>
       </c>
       <c r="B140" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C140" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="D140">
-        <v>2840</v>
+        <v>132776</v>
       </c>
       <c r="E140" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G140">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H140" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="I140">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J140">
-        <v>0</v>
+        <v>63.99</v>
       </c>
       <c r="K140">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L140">
         <v>1</v>
@@ -6091,34 +6121,34 @@
         <v>13</v>
       </c>
       <c r="B141" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C141" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="D141">
-        <v>2840</v>
+        <v>133405</v>
       </c>
       <c r="E141" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G141">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H141" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J141">
-        <v>63.99</v>
+        <v>0</v>
       </c>
       <c r="K141">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L141">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:52">
@@ -6126,34 +6156,34 @@
         <v>13</v>
       </c>
       <c r="B142" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C142" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="D142">
-        <v>3477</v>
+        <v>133405</v>
       </c>
       <c r="E142" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G142">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H142" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="I142">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J142">
         <v>0</v>
       </c>
       <c r="K142">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:52">
@@ -6161,31 +6191,31 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C143" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="D143">
-        <v>3477</v>
+        <v>133405</v>
       </c>
       <c r="E143" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G143">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H143" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="I143">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J143">
-        <v>0</v>
+        <v>63.99</v>
       </c>
       <c r="K143">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L143">
         <v>1</v>
@@ -6196,34 +6226,34 @@
         <v>13</v>
       </c>
       <c r="B144" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C144" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="D144">
-        <v>3477</v>
+        <v>134047</v>
       </c>
       <c r="E144" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G144">
         <v>2018</v>
       </c>
       <c r="H144" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J144">
-        <v>63.99</v>
+        <v>0</v>
       </c>
       <c r="K144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L144">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:52">
@@ -6231,34 +6261,34 @@
         <v>13</v>
       </c>
       <c r="B145" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C145" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="D145">
-        <v>4110</v>
+        <v>134047</v>
       </c>
       <c r="E145" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G145">
         <v>2018</v>
       </c>
       <c r="H145" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="I145">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J145">
         <v>0</v>
       </c>
       <c r="K145">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L145">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:52">
@@ -6266,31 +6296,31 @@
         <v>13</v>
       </c>
       <c r="B146" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C146" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="D146">
-        <v>4110</v>
+        <v>134047</v>
       </c>
       <c r="E146" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G146">
         <v>2018</v>
       </c>
       <c r="H146" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="I146">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J146">
-        <v>0</v>
+        <v>63.99</v>
       </c>
       <c r="K146">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L146">
         <v>1</v>
@@ -6301,34 +6331,34 @@
         <v>13</v>
       </c>
       <c r="B147" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C147" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="D147">
-        <v>4110</v>
+        <v>134688</v>
       </c>
       <c r="E147" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G147">
         <v>2018</v>
       </c>
       <c r="H147" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J147">
-        <v>63.99</v>
+        <v>0</v>
       </c>
       <c r="K147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L147">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:52">
@@ -6336,34 +6366,34 @@
         <v>13</v>
       </c>
       <c r="B148" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C148" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="D148">
-        <v>4744</v>
+        <v>134688</v>
       </c>
       <c r="E148" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G148">
         <v>2018</v>
       </c>
       <c r="H148" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I148">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J148">
         <v>0</v>
       </c>
       <c r="K148">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L148">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:52">
@@ -6371,31 +6401,31 @@
         <v>13</v>
       </c>
       <c r="B149" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C149" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="D149">
-        <v>4744</v>
+        <v>134688</v>
       </c>
       <c r="E149" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G149">
         <v>2018</v>
       </c>
       <c r="H149" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I149">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J149">
-        <v>0</v>
+        <v>63.99</v>
       </c>
       <c r="K149">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L149">
         <v>1</v>
@@ -6406,34 +6436,34 @@
         <v>13</v>
       </c>
       <c r="B150" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C150" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="D150">
-        <v>4744</v>
+        <v>135327</v>
       </c>
       <c r="E150" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G150">
         <v>2018</v>
       </c>
       <c r="H150" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J150">
-        <v>63.99</v>
+        <v>0</v>
       </c>
       <c r="K150">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L150">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:52">
@@ -6441,34 +6471,34 @@
         <v>13</v>
       </c>
       <c r="B151" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C151" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="D151">
-        <v>5405</v>
+        <v>135327</v>
       </c>
       <c r="E151" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G151">
         <v>2018</v>
       </c>
       <c r="H151" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="I151">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J151">
         <v>0</v>
       </c>
       <c r="K151">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="L151">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:52">
@@ -6476,31 +6506,31 @@
         <v>13</v>
       </c>
       <c r="B152" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C152" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="D152">
-        <v>5405</v>
+        <v>135327</v>
       </c>
       <c r="E152" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G152">
         <v>2018</v>
       </c>
       <c r="H152" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="I152">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J152">
-        <v>0</v>
+        <v>63.99</v>
       </c>
       <c r="K152">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="L152">
         <v>1</v>
@@ -6511,34 +6541,34 @@
         <v>13</v>
       </c>
       <c r="B153" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C153" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D153">
-        <v>5405</v>
+        <v>184</v>
       </c>
       <c r="E153" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G153">
         <v>2018</v>
       </c>
       <c r="H153" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J153">
-        <v>63.99</v>
+        <v>0</v>
       </c>
       <c r="K153">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L153">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:52">
@@ -6546,34 +6576,34 @@
         <v>13</v>
       </c>
       <c r="B154" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C154" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D154">
-        <v>6029</v>
+        <v>184</v>
       </c>
       <c r="E154" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G154">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H154" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I154">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J154">
         <v>0</v>
       </c>
       <c r="K154">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L154">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:52">
@@ -6581,31 +6611,31 @@
         <v>13</v>
       </c>
       <c r="B155" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C155" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D155">
-        <v>6029</v>
+        <v>184</v>
       </c>
       <c r="E155" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G155">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H155" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I155">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J155">
-        <v>0</v>
+        <v>63.99</v>
       </c>
       <c r="K155">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L155">
         <v>1</v>
@@ -6616,34 +6646,34 @@
         <v>13</v>
       </c>
       <c r="B156" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C156" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D156">
-        <v>6029</v>
+        <v>848</v>
       </c>
       <c r="E156" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G156">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H156" t="s">
         <v>19</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J156">
-        <v>63.99</v>
+        <v>0</v>
       </c>
       <c r="K156">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L156">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:52">
@@ -6651,34 +6681,34 @@
         <v>13</v>
       </c>
       <c r="B157" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C157" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D157">
-        <v>6684</v>
+        <v>848</v>
       </c>
       <c r="E157" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G157">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H157" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I157">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J157">
         <v>0</v>
       </c>
       <c r="K157">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L157">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:52">
@@ -6686,31 +6716,31 @@
         <v>13</v>
       </c>
       <c r="B158" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C158" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D158">
-        <v>6684</v>
+        <v>848</v>
       </c>
       <c r="E158" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G158">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H158" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I158">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J158">
-        <v>0</v>
+        <v>63.99</v>
       </c>
       <c r="K158">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L158">
         <v>1</v>
@@ -6721,34 +6751,34 @@
         <v>13</v>
       </c>
       <c r="B159" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C159" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D159">
-        <v>6684</v>
+        <v>1504</v>
       </c>
       <c r="E159" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G159">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H159" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J159">
-        <v>63.99</v>
+        <v>0</v>
       </c>
       <c r="K159">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L159">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:52">
@@ -6756,34 +6786,34 @@
         <v>13</v>
       </c>
       <c r="B160" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C160" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D160">
-        <v>7332</v>
+        <v>1504</v>
       </c>
       <c r="E160" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G160">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H160" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I160">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J160">
         <v>0</v>
       </c>
       <c r="K160">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L160">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:52">
@@ -6791,31 +6821,31 @@
         <v>13</v>
       </c>
       <c r="B161" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C161" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D161">
-        <v>7332</v>
+        <v>1504</v>
       </c>
       <c r="E161" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G161">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H161" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I161">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J161">
-        <v>0</v>
+        <v>63.99</v>
       </c>
       <c r="K161">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L161">
         <v>1</v>
@@ -6826,34 +6856,34 @@
         <v>13</v>
       </c>
       <c r="B162" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C162" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D162">
-        <v>7332</v>
+        <v>2173</v>
       </c>
       <c r="E162" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G162">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H162" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J162">
-        <v>63.99</v>
+        <v>0</v>
       </c>
       <c r="K162">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L162">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:52">
@@ -6861,34 +6891,34 @@
         <v>13</v>
       </c>
       <c r="B163" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C163" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D163">
-        <v>7959</v>
+        <v>2173</v>
       </c>
       <c r="E163" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G163">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H163" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I163">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J163">
         <v>0</v>
       </c>
       <c r="K163">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L163">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:52">
@@ -6896,31 +6926,31 @@
         <v>13</v>
       </c>
       <c r="B164" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C164" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D164">
-        <v>7959</v>
+        <v>2173</v>
       </c>
       <c r="E164" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G164">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H164" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I164">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J164">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="K164">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L164">
         <v>1</v>
@@ -6931,34 +6961,34 @@
         <v>13</v>
       </c>
       <c r="B165" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C165" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D165">
-        <v>7959</v>
+        <v>2840</v>
       </c>
       <c r="E165" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G165">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H165" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J165">
-        <v>63.99</v>
+        <v>0</v>
       </c>
       <c r="K165">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L165">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:52">
@@ -6966,34 +6996,34 @@
         <v>13</v>
       </c>
       <c r="B166" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C166" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D166">
-        <v>8580</v>
+        <v>2840</v>
       </c>
       <c r="E166" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G166">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H166" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="I166">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J166">
         <v>0</v>
       </c>
       <c r="K166">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L166">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:52">
@@ -7001,31 +7031,31 @@
         <v>13</v>
       </c>
       <c r="B167" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C167" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D167">
-        <v>8580</v>
+        <v>2840</v>
       </c>
       <c r="E167" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G167">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H167" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="I167">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J167">
-        <v>0</v>
+        <v>63.99</v>
       </c>
       <c r="K167">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L167">
         <v>1</v>
@@ -7036,34 +7066,34 @@
         <v>13</v>
       </c>
       <c r="B168" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C168" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D168">
-        <v>8580</v>
+        <v>3477</v>
       </c>
       <c r="E168" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G168">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H168" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J168">
-        <v>63.99</v>
+        <v>0</v>
       </c>
       <c r="K168">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L168">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:52">
@@ -7071,34 +7101,34 @@
         <v>13</v>
       </c>
       <c r="B169" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C169" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D169">
-        <v>9232</v>
+        <v>3477</v>
       </c>
       <c r="E169" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G169">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H169" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="I169">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J169">
         <v>0</v>
       </c>
       <c r="K169">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L169">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:52">
@@ -7106,31 +7136,31 @@
         <v>13</v>
       </c>
       <c r="B170" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C170" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D170">
-        <v>9232</v>
+        <v>3477</v>
       </c>
       <c r="E170" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G170">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H170" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="I170">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J170">
-        <v>0</v>
+        <v>63.99</v>
       </c>
       <c r="K170">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L170">
         <v>1</v>
@@ -7141,34 +7171,34 @@
         <v>13</v>
       </c>
       <c r="B171" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C171" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D171">
-        <v>9232</v>
+        <v>4110</v>
       </c>
       <c r="E171" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G171">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H171" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J171">
-        <v>63.99</v>
+        <v>0</v>
       </c>
       <c r="K171">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L171">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:52">
@@ -7176,34 +7206,34 @@
         <v>13</v>
       </c>
       <c r="B172" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C172" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D172">
-        <v>9874</v>
+        <v>4110</v>
       </c>
       <c r="E172" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G172">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H172" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I172">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J172">
         <v>0</v>
       </c>
       <c r="K172">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L172">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:52">
@@ -7211,31 +7241,31 @@
         <v>13</v>
       </c>
       <c r="B173" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C173" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D173">
-        <v>9874</v>
+        <v>4110</v>
       </c>
       <c r="E173" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G173">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H173" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I173">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J173">
-        <v>0</v>
+        <v>63.99</v>
       </c>
       <c r="K173">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L173">
         <v>1</v>
@@ -7246,34 +7276,34 @@
         <v>13</v>
       </c>
       <c r="B174" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C174" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D174">
-        <v>9874</v>
+        <v>4744</v>
       </c>
       <c r="E174" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G174">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H174" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J174">
-        <v>63.99</v>
+        <v>0</v>
       </c>
       <c r="K174">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L174">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:52">
@@ -7281,34 +7311,34 @@
         <v>13</v>
       </c>
       <c r="B175" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C175" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D175">
-        <v>10510</v>
+        <v>4744</v>
       </c>
       <c r="E175" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G175">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H175" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="I175">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J175">
         <v>0</v>
       </c>
       <c r="K175">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L175">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:52">
@@ -7316,31 +7346,31 @@
         <v>13</v>
       </c>
       <c r="B176" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C176" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D176">
-        <v>10510</v>
+        <v>4744</v>
       </c>
       <c r="E176" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G176">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H176" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="I176">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J176">
-        <v>0</v>
+        <v>63.99</v>
       </c>
       <c r="K176">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L176">
         <v>1</v>
@@ -7351,34 +7381,34 @@
         <v>13</v>
       </c>
       <c r="B177" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C177" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D177">
-        <v>10510</v>
+        <v>5405</v>
       </c>
       <c r="E177" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G177">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H177" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J177">
-        <v>63.99</v>
+        <v>0</v>
       </c>
       <c r="K177">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L177">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:52">
@@ -7386,34 +7416,34 @@
         <v>13</v>
       </c>
       <c r="B178" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C178" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D178">
-        <v>11109</v>
+        <v>5405</v>
       </c>
       <c r="E178" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G178">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H178" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="I178">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J178">
         <v>0</v>
       </c>
       <c r="K178">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L178">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:52">
@@ -7421,31 +7451,31 @@
         <v>13</v>
       </c>
       <c r="B179" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C179" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D179">
-        <v>11109</v>
+        <v>5405</v>
       </c>
       <c r="E179" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G179">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H179" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="I179">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J179">
-        <v>0</v>
+        <v>63.99</v>
       </c>
       <c r="K179">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L179">
         <v>1</v>
@@ -7456,34 +7486,34 @@
         <v>13</v>
       </c>
       <c r="B180" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C180" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D180">
-        <v>11109</v>
+        <v>6029</v>
       </c>
       <c r="E180" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G180">
         <v>2019</v>
       </c>
       <c r="H180" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J180">
-        <v>63.99</v>
+        <v>0</v>
       </c>
       <c r="K180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L180">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:52">
@@ -7491,34 +7521,34 @@
         <v>13</v>
       </c>
       <c r="B181" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C181" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D181">
-        <v>11707</v>
+        <v>6029</v>
       </c>
       <c r="E181" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G181">
         <v>2019</v>
       </c>
       <c r="H181" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="I181">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J181">
         <v>0</v>
       </c>
       <c r="K181">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L181">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:52">
@@ -7526,31 +7556,31 @@
         <v>13</v>
       </c>
       <c r="B182" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C182" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D182">
-        <v>11707</v>
+        <v>6029</v>
       </c>
       <c r="E182" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G182">
         <v>2019</v>
       </c>
       <c r="H182" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="I182">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J182">
-        <v>0</v>
+        <v>63.99</v>
       </c>
       <c r="K182">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L182">
         <v>1</v>
@@ -7561,34 +7591,34 @@
         <v>13</v>
       </c>
       <c r="B183" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C183" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D183">
-        <v>11707</v>
+        <v>6684</v>
       </c>
       <c r="E183" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G183">
         <v>2019</v>
       </c>
       <c r="H183" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J183">
-        <v>63.99</v>
+        <v>0</v>
       </c>
       <c r="K183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L183">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:52">
@@ -7596,34 +7626,34 @@
         <v>13</v>
       </c>
       <c r="B184" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C184" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D184">
-        <v>12306</v>
+        <v>6684</v>
       </c>
       <c r="E184" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G184">
         <v>2019</v>
       </c>
       <c r="H184" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I184">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J184">
         <v>0</v>
       </c>
       <c r="K184">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L184">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:52">
@@ -7631,31 +7661,31 @@
         <v>13</v>
       </c>
       <c r="B185" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C185" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D185">
-        <v>12306</v>
+        <v>6684</v>
       </c>
       <c r="E185" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G185">
         <v>2019</v>
       </c>
       <c r="H185" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I185">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J185">
-        <v>0</v>
+        <v>63.99</v>
       </c>
       <c r="K185">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L185">
         <v>1</v>
@@ -7666,34 +7696,34 @@
         <v>13</v>
       </c>
       <c r="B186" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C186" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D186">
-        <v>12306</v>
+        <v>7332</v>
       </c>
       <c r="E186" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G186">
         <v>2019</v>
       </c>
       <c r="H186" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J186">
-        <v>63.99</v>
+        <v>0</v>
       </c>
       <c r="K186">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L186">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:52">
@@ -7701,34 +7731,34 @@
         <v>13</v>
       </c>
       <c r="B187" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C187" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D187">
-        <v>12894</v>
+        <v>7332</v>
       </c>
       <c r="E187" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G187">
         <v>2019</v>
       </c>
       <c r="H187" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="I187">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J187">
         <v>0</v>
       </c>
       <c r="K187">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="L187">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:52">
@@ -7736,31 +7766,31 @@
         <v>13</v>
       </c>
       <c r="B188" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C188" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D188">
-        <v>12894</v>
+        <v>7332</v>
       </c>
       <c r="E188" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G188">
         <v>2019</v>
       </c>
       <c r="H188" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="I188">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J188">
-        <v>0</v>
+        <v>63.99</v>
       </c>
       <c r="K188">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L188">
         <v>1</v>
@@ -7771,34 +7801,34 @@
         <v>13</v>
       </c>
       <c r="B189" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C189" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D189">
-        <v>12894</v>
+        <v>7959</v>
       </c>
       <c r="E189" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G189">
         <v>2019</v>
       </c>
       <c r="H189" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J189">
-        <v>63.99</v>
+        <v>0</v>
       </c>
       <c r="K189">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L189">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:52">
@@ -7806,34 +7836,34 @@
         <v>13</v>
       </c>
       <c r="B190" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C190" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D190">
-        <v>13469</v>
+        <v>7959</v>
       </c>
       <c r="E190" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G190">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H190" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I190">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J190">
         <v>0</v>
       </c>
       <c r="K190">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L190">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:52">
@@ -7841,31 +7871,31 @@
         <v>13</v>
       </c>
       <c r="B191" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C191" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D191">
-        <v>13469</v>
+        <v>7959</v>
       </c>
       <c r="E191" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G191">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H191" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I191">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J191">
-        <v>0</v>
+        <v>63.99</v>
       </c>
       <c r="K191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L191">
         <v>1</v>
@@ -7876,34 +7906,34 @@
         <v>13</v>
       </c>
       <c r="B192" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C192" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D192">
-        <v>13469</v>
+        <v>8580</v>
       </c>
       <c r="E192" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G192">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H192" t="s">
         <v>19</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J192">
-        <v>63.99</v>
+        <v>0</v>
       </c>
       <c r="K192">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L192">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:52">
@@ -7911,34 +7941,34 @@
         <v>13</v>
       </c>
       <c r="B193" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C193" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D193">
-        <v>14079</v>
+        <v>8580</v>
       </c>
       <c r="E193" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G193">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H193" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I193">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J193">
         <v>0</v>
       </c>
       <c r="K193">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L193">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:52">
@@ -7946,31 +7976,31 @@
         <v>13</v>
       </c>
       <c r="B194" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C194" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D194">
-        <v>14079</v>
+        <v>8580</v>
       </c>
       <c r="E194" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G194">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H194" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I194">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J194">
-        <v>0</v>
+        <v>63.99</v>
       </c>
       <c r="K194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L194">
         <v>1</v>
@@ -7981,34 +8011,34 @@
         <v>13</v>
       </c>
       <c r="B195" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C195" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D195">
-        <v>14079</v>
+        <v>9232</v>
       </c>
       <c r="E195" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G195">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H195" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J195">
-        <v>63.99</v>
+        <v>0</v>
       </c>
       <c r="K195">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L195">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:52">
@@ -8016,34 +8046,34 @@
         <v>13</v>
       </c>
       <c r="B196" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C196" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D196">
-        <v>14669</v>
+        <v>9232</v>
       </c>
       <c r="E196" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G196">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H196" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I196">
-        <v>54.94</v>
+        <v>2.2</v>
       </c>
       <c r="J196">
         <v>0</v>
       </c>
       <c r="K196">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L196">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:52">
@@ -8051,31 +8081,31 @@
         <v>13</v>
       </c>
       <c r="B197" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C197" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D197">
-        <v>14669</v>
+        <v>9232</v>
       </c>
       <c r="E197" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G197">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H197" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I197">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J197">
-        <v>0</v>
+        <v>63.99</v>
       </c>
       <c r="K197">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L197">
         <v>1</v>
@@ -8086,66 +8116,66 @@
         <v>13</v>
       </c>
       <c r="B198" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C198" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D198">
-        <v>14669</v>
+        <v>9874</v>
       </c>
       <c r="E198" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G198">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H198" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>54.94</v>
       </c>
       <c r="J198">
-        <v>63.99</v>
+        <v>0</v>
       </c>
       <c r="K198">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L198">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:52">
       <c r="A199" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="B199" t="s">
-        <v>168</v>
-      </c>
-      <c r="C199">
-        <v>999999</v>
+        <v>156</v>
+      </c>
+      <c r="C199" t="s">
+        <v>126</v>
       </c>
       <c r="D199">
-        <v>999999999</v>
+        <v>9874</v>
       </c>
       <c r="E199" t="s">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="G199">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H199" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I199">
-        <v>54.93</v>
+        <v>2.2</v>
       </c>
       <c r="J199">
         <v>0</v>
       </c>
       <c r="K199">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L199">
         <v>1</v>
@@ -8153,34 +8183,34 @@
     </row>
     <row r="200" spans="1:52">
       <c r="A200" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="B200" t="s">
-        <v>170</v>
-      </c>
-      <c r="C200">
-        <v>999999</v>
+        <v>157</v>
+      </c>
+      <c r="C200" t="s">
+        <v>126</v>
       </c>
       <c r="D200">
-        <v>999999999</v>
+        <v>9874</v>
       </c>
       <c r="E200" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="G200">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H200" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I200">
-        <v>54.93</v>
+        <v>0</v>
       </c>
       <c r="J200">
-        <v>0</v>
+        <v>63.99</v>
       </c>
       <c r="K200">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L200">
         <v>1</v>
@@ -8188,69 +8218,69 @@
     </row>
     <row r="201" spans="1:52">
       <c r="A201" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="B201" t="s">
-        <v>171</v>
-      </c>
-      <c r="C201">
-        <v>999999</v>
+        <v>158</v>
+      </c>
+      <c r="C201" t="s">
+        <v>126</v>
       </c>
       <c r="D201">
-        <v>999999999</v>
+        <v>10510</v>
       </c>
       <c r="E201" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="G201">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H201" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I201">
-        <v>54.93</v>
+        <v>54.94</v>
       </c>
       <c r="J201">
         <v>0</v>
       </c>
       <c r="K201">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L201">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:52">
       <c r="A202" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="B202" t="s">
-        <v>172</v>
-      </c>
-      <c r="C202">
-        <v>999999</v>
+        <v>158</v>
+      </c>
+      <c r="C202" t="s">
+        <v>126</v>
       </c>
       <c r="D202">
-        <v>999999999</v>
+        <v>10510</v>
       </c>
       <c r="E202" t="s">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="G202">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H202" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I202">
-        <v>54.93</v>
+        <v>2.2</v>
       </c>
       <c r="J202">
         <v>0</v>
       </c>
       <c r="K202">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L202">
         <v>1</v>
@@ -8258,34 +8288,34 @@
     </row>
     <row r="203" spans="1:52">
       <c r="A203" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="B203" t="s">
-        <v>173</v>
-      </c>
-      <c r="C203">
-        <v>999999</v>
+        <v>159</v>
+      </c>
+      <c r="C203" t="s">
+        <v>126</v>
       </c>
       <c r="D203">
-        <v>999999999</v>
+        <v>10510</v>
       </c>
       <c r="E203" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="G203">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H203" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I203">
-        <v>54.93</v>
+        <v>0</v>
       </c>
       <c r="J203">
-        <v>0</v>
+        <v>63.99</v>
       </c>
       <c r="K203">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L203">
         <v>1</v>
@@ -8293,28 +8323,28 @@
     </row>
     <row r="204" spans="1:52">
       <c r="A204" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="B204" t="s">
-        <v>174</v>
-      </c>
-      <c r="C204">
-        <v>999999</v>
+        <v>159</v>
+      </c>
+      <c r="C204" t="s">
+        <v>126</v>
       </c>
       <c r="D204">
-        <v>999999999</v>
+        <v>11109</v>
       </c>
       <c r="E204" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="G204">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H204" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I204">
-        <v>54.93</v>
+        <v>54.94</v>
       </c>
       <c r="J204">
         <v>0</v>
@@ -8323,39 +8353,39 @@
         <v>9</v>
       </c>
       <c r="L204">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:52">
       <c r="A205" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="B205" t="s">
-        <v>175</v>
-      </c>
-      <c r="C205">
-        <v>999999</v>
+        <v>159</v>
+      </c>
+      <c r="C205" t="s">
+        <v>126</v>
       </c>
       <c r="D205">
-        <v>999999999</v>
+        <v>11109</v>
       </c>
       <c r="E205" t="s">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="G205">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H205" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I205">
-        <v>54.93</v>
+        <v>2.2</v>
       </c>
       <c r="J205">
         <v>0</v>
       </c>
       <c r="K205">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L205">
         <v>1</v>
@@ -8363,34 +8393,34 @@
     </row>
     <row r="206" spans="1:52">
       <c r="A206" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="B206" t="s">
-        <v>176</v>
-      </c>
-      <c r="C206">
-        <v>999999</v>
+        <v>160</v>
+      </c>
+      <c r="C206" t="s">
+        <v>126</v>
       </c>
       <c r="D206">
-        <v>999999999</v>
+        <v>11109</v>
       </c>
       <c r="E206" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="G206">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H206" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I206">
-        <v>54.93</v>
+        <v>0</v>
       </c>
       <c r="J206">
-        <v>0</v>
+        <v>63.99</v>
       </c>
       <c r="K206">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L206">
         <v>1</v>
@@ -8398,60 +8428,60 @@
     </row>
     <row r="207" spans="1:52">
       <c r="A207" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>177</v>
-      </c>
-      <c r="C207">
-        <v>999999</v>
+        <v>161</v>
+      </c>
+      <c r="C207" t="s">
+        <v>126</v>
       </c>
       <c r="D207">
-        <v>999999999</v>
+        <v>11707</v>
       </c>
       <c r="E207" t="s">
-        <v>178</v>
+        <v>29</v>
       </c>
       <c r="G207">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H207" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="I207">
-        <v>2.2</v>
+        <v>54.94</v>
       </c>
       <c r="J207">
         <v>0</v>
       </c>
       <c r="K207">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L207">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:52">
       <c r="A208" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="B208" t="s">
-        <v>179</v>
-      </c>
-      <c r="C208">
-        <v>999999</v>
+        <v>161</v>
+      </c>
+      <c r="C208" t="s">
+        <v>126</v>
       </c>
       <c r="D208">
-        <v>999999999</v>
+        <v>11707</v>
       </c>
       <c r="E208" t="s">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="G208">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H208" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="I208">
         <v>2.2</v>
@@ -8460,7 +8490,7 @@
         <v>0</v>
       </c>
       <c r="K208">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L208">
         <v>1</v>
@@ -8468,34 +8498,34 @@
     </row>
     <row r="209" spans="1:52">
       <c r="A209" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="B209" t="s">
-        <v>180</v>
-      </c>
-      <c r="C209">
-        <v>999999</v>
+        <v>162</v>
+      </c>
+      <c r="C209" t="s">
+        <v>126</v>
       </c>
       <c r="D209">
-        <v>999999999</v>
+        <v>11707</v>
       </c>
       <c r="E209" t="s">
-        <v>178</v>
+        <v>23</v>
       </c>
       <c r="G209">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H209" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I209">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J209">
-        <v>0</v>
+        <v>63.99</v>
       </c>
       <c r="K209">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L209">
         <v>1</v>
@@ -8503,60 +8533,60 @@
     </row>
     <row r="210" spans="1:52">
       <c r="A210" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="B210" t="s">
-        <v>181</v>
-      </c>
-      <c r="C210">
-        <v>999999</v>
+        <v>163</v>
+      </c>
+      <c r="C210" t="s">
+        <v>126</v>
       </c>
       <c r="D210">
-        <v>999999999</v>
+        <v>12306</v>
       </c>
       <c r="E210" t="s">
-        <v>178</v>
+        <v>29</v>
       </c>
       <c r="G210">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H210" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="I210">
-        <v>2.2</v>
+        <v>54.94</v>
       </c>
       <c r="J210">
         <v>0</v>
       </c>
       <c r="K210">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L210">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:52">
       <c r="A211" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="B211" t="s">
-        <v>182</v>
-      </c>
-      <c r="C211">
-        <v>999999</v>
+        <v>163</v>
+      </c>
+      <c r="C211" t="s">
+        <v>126</v>
       </c>
       <c r="D211">
-        <v>999999999</v>
+        <v>12306</v>
       </c>
       <c r="E211" t="s">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="G211">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H211" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I211">
         <v>2.2</v>
@@ -8565,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="K211">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L211">
         <v>1</v>
@@ -8573,34 +8603,34 @@
     </row>
     <row r="212" spans="1:52">
       <c r="A212" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="B212" t="s">
-        <v>183</v>
-      </c>
-      <c r="C212">
-        <v>999999</v>
+        <v>164</v>
+      </c>
+      <c r="C212" t="s">
+        <v>126</v>
       </c>
       <c r="D212">
-        <v>999999999</v>
+        <v>12306</v>
       </c>
       <c r="E212" t="s">
-        <v>178</v>
+        <v>23</v>
       </c>
       <c r="G212">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H212" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="I212">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J212">
-        <v>0</v>
+        <v>63.99</v>
       </c>
       <c r="K212">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L212">
         <v>1</v>
@@ -8608,37 +8638,877 @@
     </row>
     <row r="213" spans="1:52">
       <c r="A213" t="s">
+        <v>13</v>
+      </c>
+      <c r="B213" t="s">
+        <v>165</v>
+      </c>
+      <c r="C213" t="s">
+        <v>126</v>
+      </c>
+      <c r="D213">
+        <v>12894</v>
+      </c>
+      <c r="E213" t="s">
+        <v>29</v>
+      </c>
+      <c r="G213">
+        <v>2019</v>
+      </c>
+      <c r="H213" t="s">
+        <v>66</v>
+      </c>
+      <c r="I213">
+        <v>54.94</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>12</v>
+      </c>
+      <c r="L213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:52">
+      <c r="A214" t="s">
+        <v>13</v>
+      </c>
+      <c r="B214" t="s">
+        <v>165</v>
+      </c>
+      <c r="C214" t="s">
+        <v>126</v>
+      </c>
+      <c r="D214">
+        <v>12894</v>
+      </c>
+      <c r="E214" t="s">
+        <v>16</v>
+      </c>
+      <c r="G214">
+        <v>2019</v>
+      </c>
+      <c r="H214" t="s">
+        <v>66</v>
+      </c>
+      <c r="I214">
+        <v>2.2</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>12</v>
+      </c>
+      <c r="L214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:52">
+      <c r="A215" t="s">
+        <v>13</v>
+      </c>
+      <c r="B215" t="s">
+        <v>166</v>
+      </c>
+      <c r="C215" t="s">
+        <v>126</v>
+      </c>
+      <c r="D215">
+        <v>12894</v>
+      </c>
+      <c r="E215" t="s">
+        <v>23</v>
+      </c>
+      <c r="G215">
+        <v>2019</v>
+      </c>
+      <c r="H215" t="s">
+        <v>66</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>63.99</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:52">
+      <c r="A216" t="s">
+        <v>13</v>
+      </c>
+      <c r="B216" t="s">
         <v>167</v>
       </c>
-      <c r="B213" t="s">
+      <c r="C216" t="s">
+        <v>126</v>
+      </c>
+      <c r="D216">
+        <v>13469</v>
+      </c>
+      <c r="E216" t="s">
+        <v>29</v>
+      </c>
+      <c r="G216">
+        <v>2020</v>
+      </c>
+      <c r="H216" t="s">
+        <v>33</v>
+      </c>
+      <c r="I216">
+        <v>54.94</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>1</v>
+      </c>
+      <c r="L216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:52">
+      <c r="A217" t="s">
+        <v>13</v>
+      </c>
+      <c r="B217" t="s">
+        <v>167</v>
+      </c>
+      <c r="C217" t="s">
+        <v>126</v>
+      </c>
+      <c r="D217">
+        <v>13469</v>
+      </c>
+      <c r="E217" t="s">
+        <v>16</v>
+      </c>
+      <c r="G217">
+        <v>2020</v>
+      </c>
+      <c r="H217" t="s">
+        <v>33</v>
+      </c>
+      <c r="I217">
+        <v>2.2</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>1</v>
+      </c>
+      <c r="L217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:52">
+      <c r="A218" t="s">
+        <v>13</v>
+      </c>
+      <c r="B218" t="s">
+        <v>168</v>
+      </c>
+      <c r="C218" t="s">
+        <v>126</v>
+      </c>
+      <c r="D218">
+        <v>13469</v>
+      </c>
+      <c r="E218" t="s">
+        <v>23</v>
+      </c>
+      <c r="G218">
+        <v>2020</v>
+      </c>
+      <c r="H218" t="s">
+        <v>33</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>63.99</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:52">
+      <c r="A219" t="s">
+        <v>13</v>
+      </c>
+      <c r="B219" t="s">
+        <v>169</v>
+      </c>
+      <c r="C219" t="s">
+        <v>126</v>
+      </c>
+      <c r="D219">
+        <v>14079</v>
+      </c>
+      <c r="E219" t="s">
+        <v>29</v>
+      </c>
+      <c r="G219">
+        <v>2020</v>
+      </c>
+      <c r="H219" t="s">
+        <v>36</v>
+      </c>
+      <c r="I219">
+        <v>54.94</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>2</v>
+      </c>
+      <c r="L219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:52">
+      <c r="A220" t="s">
+        <v>13</v>
+      </c>
+      <c r="B220" t="s">
+        <v>169</v>
+      </c>
+      <c r="C220" t="s">
+        <v>126</v>
+      </c>
+      <c r="D220">
+        <v>14079</v>
+      </c>
+      <c r="E220" t="s">
+        <v>16</v>
+      </c>
+      <c r="G220">
+        <v>2020</v>
+      </c>
+      <c r="H220" t="s">
+        <v>36</v>
+      </c>
+      <c r="I220">
+        <v>2.2</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>2</v>
+      </c>
+      <c r="L220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:52">
+      <c r="A221" t="s">
+        <v>13</v>
+      </c>
+      <c r="B221" t="s">
+        <v>170</v>
+      </c>
+      <c r="C221" t="s">
+        <v>126</v>
+      </c>
+      <c r="D221">
+        <v>14079</v>
+      </c>
+      <c r="E221" t="s">
+        <v>23</v>
+      </c>
+      <c r="G221">
+        <v>2020</v>
+      </c>
+      <c r="H221" t="s">
+        <v>36</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>63.99</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:52">
+      <c r="A222" t="s">
+        <v>13</v>
+      </c>
+      <c r="B222" t="s">
+        <v>171</v>
+      </c>
+      <c r="C222" t="s">
+        <v>126</v>
+      </c>
+      <c r="D222">
+        <v>14669</v>
+      </c>
+      <c r="E222" t="s">
+        <v>29</v>
+      </c>
+      <c r="G222">
+        <v>2020</v>
+      </c>
+      <c r="H222" t="s">
+        <v>39</v>
+      </c>
+      <c r="I222">
+        <v>54.94</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>3</v>
+      </c>
+      <c r="L222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:52">
+      <c r="A223" t="s">
+        <v>13</v>
+      </c>
+      <c r="B223" t="s">
+        <v>171</v>
+      </c>
+      <c r="C223" t="s">
+        <v>126</v>
+      </c>
+      <c r="D223">
+        <v>14669</v>
+      </c>
+      <c r="E223" t="s">
+        <v>16</v>
+      </c>
+      <c r="G223">
+        <v>2020</v>
+      </c>
+      <c r="H223" t="s">
+        <v>39</v>
+      </c>
+      <c r="I223">
+        <v>2.2</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>3</v>
+      </c>
+      <c r="L223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:52">
+      <c r="A224" t="s">
+        <v>13</v>
+      </c>
+      <c r="B224" t="s">
+        <v>172</v>
+      </c>
+      <c r="C224" t="s">
+        <v>126</v>
+      </c>
+      <c r="D224">
+        <v>14669</v>
+      </c>
+      <c r="E224" t="s">
+        <v>23</v>
+      </c>
+      <c r="G224">
+        <v>2020</v>
+      </c>
+      <c r="H224" t="s">
+        <v>39</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>63.99</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:52">
+      <c r="A225" t="s">
+        <v>173</v>
+      </c>
+      <c r="B225" t="s">
+        <v>174</v>
+      </c>
+      <c r="C225">
+        <v>999999</v>
+      </c>
+      <c r="D225">
+        <v>999999999</v>
+      </c>
+      <c r="E225" t="s">
+        <v>175</v>
+      </c>
+      <c r="G225">
+        <v>2020</v>
+      </c>
+      <c r="H225" t="s">
+        <v>55</v>
+      </c>
+      <c r="I225">
+        <v>54.93</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>8</v>
+      </c>
+      <c r="L225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:52">
+      <c r="A226" t="s">
+        <v>173</v>
+      </c>
+      <c r="B226" t="s">
+        <v>176</v>
+      </c>
+      <c r="C226">
+        <v>999999</v>
+      </c>
+      <c r="D226">
+        <v>999999999</v>
+      </c>
+      <c r="E226" t="s">
+        <v>175</v>
+      </c>
+      <c r="G226">
+        <v>2020</v>
+      </c>
+      <c r="H226" t="s">
+        <v>58</v>
+      </c>
+      <c r="I226">
+        <v>54.93</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>9</v>
+      </c>
+      <c r="L226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:52">
+      <c r="A227" t="s">
+        <v>173</v>
+      </c>
+      <c r="B227" t="s">
+        <v>177</v>
+      </c>
+      <c r="C227">
+        <v>999999</v>
+      </c>
+      <c r="D227">
+        <v>999999999</v>
+      </c>
+      <c r="E227" t="s">
+        <v>175</v>
+      </c>
+      <c r="G227">
+        <v>2020</v>
+      </c>
+      <c r="H227" t="s">
+        <v>60</v>
+      </c>
+      <c r="I227">
+        <v>54.93</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>10</v>
+      </c>
+      <c r="L227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:52">
+      <c r="A228" t="s">
+        <v>173</v>
+      </c>
+      <c r="B228" t="s">
+        <v>178</v>
+      </c>
+      <c r="C228">
+        <v>999999</v>
+      </c>
+      <c r="D228">
+        <v>999999999</v>
+      </c>
+      <c r="E228" t="s">
+        <v>175</v>
+      </c>
+      <c r="G228">
+        <v>2020</v>
+      </c>
+      <c r="H228" t="s">
+        <v>63</v>
+      </c>
+      <c r="I228">
+        <v>54.93</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>11</v>
+      </c>
+      <c r="L228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:52">
+      <c r="A229" t="s">
+        <v>173</v>
+      </c>
+      <c r="B229" t="s">
+        <v>179</v>
+      </c>
+      <c r="C229">
+        <v>999999</v>
+      </c>
+      <c r="D229">
+        <v>999999999</v>
+      </c>
+      <c r="E229" t="s">
+        <v>180</v>
+      </c>
+      <c r="G229">
+        <v>2020</v>
+      </c>
+      <c r="H229" t="s">
+        <v>58</v>
+      </c>
+      <c r="I229">
+        <v>2.2</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>9</v>
+      </c>
+      <c r="L229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:52">
+      <c r="A230" t="s">
+        <v>173</v>
+      </c>
+      <c r="B230" t="s">
+        <v>181</v>
+      </c>
+      <c r="C230">
+        <v>999999</v>
+      </c>
+      <c r="D230">
+        <v>999999999</v>
+      </c>
+      <c r="E230" t="s">
+        <v>180</v>
+      </c>
+      <c r="G230">
+        <v>2020</v>
+      </c>
+      <c r="H230" t="s">
+        <v>60</v>
+      </c>
+      <c r="I230">
+        <v>2.2</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>10</v>
+      </c>
+      <c r="L230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:52">
+      <c r="A231" t="s">
+        <v>173</v>
+      </c>
+      <c r="B231" t="s">
+        <v>182</v>
+      </c>
+      <c r="C231">
+        <v>999999</v>
+      </c>
+      <c r="D231">
+        <v>999999999</v>
+      </c>
+      <c r="E231" t="s">
+        <v>180</v>
+      </c>
+      <c r="G231">
+        <v>2020</v>
+      </c>
+      <c r="H231" t="s">
+        <v>63</v>
+      </c>
+      <c r="I231">
+        <v>2.2</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>11</v>
+      </c>
+      <c r="L231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:52">
+      <c r="A232" t="s">
+        <v>183</v>
+      </c>
+      <c r="B232" t="s">
+        <v>20</v>
+      </c>
+      <c r="C232" t="s">
+        <v>15</v>
+      </c>
+      <c r="D232">
+        <v>14058</v>
+      </c>
+      <c r="E232" t="s">
         <v>184</v>
       </c>
-      <c r="C213">
-        <v>999999</v>
-      </c>
-      <c r="D213">
-        <v>999999999</v>
-      </c>
-      <c r="E213" t="s">
-        <v>178</v>
-      </c>
-      <c r="G213">
-        <v>2020</v>
-      </c>
-      <c r="H213" t="s">
-        <v>57</v>
-      </c>
-      <c r="I213">
-        <v>2.2</v>
-      </c>
-      <c r="J213">
-        <v>0</v>
-      </c>
-      <c r="K213">
-        <v>11</v>
-      </c>
-      <c r="L213">
-        <v>1</v>
+      <c r="G232">
+        <v>2021</v>
+      </c>
+      <c r="H232" t="s">
+        <v>22</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:52">
+      <c r="A233" t="s">
+        <v>183</v>
+      </c>
+      <c r="B233" t="s">
+        <v>20</v>
+      </c>
+      <c r="C233" t="s">
+        <v>15</v>
+      </c>
+      <c r="D233">
+        <v>14059</v>
+      </c>
+      <c r="E233" t="s">
+        <v>184</v>
+      </c>
+      <c r="G233">
+        <v>2021</v>
+      </c>
+      <c r="H233" t="s">
+        <v>22</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:52">
+      <c r="A234" t="s">
+        <v>183</v>
+      </c>
+      <c r="B234" t="s">
+        <v>20</v>
+      </c>
+      <c r="C234" t="s">
+        <v>15</v>
+      </c>
+      <c r="D234">
+        <v>14062</v>
+      </c>
+      <c r="E234" t="s">
+        <v>184</v>
+      </c>
+      <c r="G234">
+        <v>2021</v>
+      </c>
+      <c r="H234" t="s">
+        <v>22</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:52">
+      <c r="A235" t="s">
+        <v>183</v>
+      </c>
+      <c r="B235" t="s">
+        <v>27</v>
+      </c>
+      <c r="C235" t="s">
+        <v>15</v>
+      </c>
+      <c r="D235">
+        <v>14063</v>
+      </c>
+      <c r="E235" t="s">
+        <v>184</v>
+      </c>
+      <c r="G235">
+        <v>2021</v>
+      </c>
+      <c r="H235" t="s">
+        <v>22</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <v>0</v>
+      </c>
+      <c r="L235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:52">
+      <c r="A236" t="s">
+        <v>183</v>
+      </c>
+      <c r="B236" t="s">
+        <v>28</v>
+      </c>
+      <c r="C236" t="s">
+        <v>15</v>
+      </c>
+      <c r="D236">
+        <v>14066</v>
+      </c>
+      <c r="E236" t="s">
+        <v>184</v>
+      </c>
+      <c r="G236">
+        <v>2021</v>
+      </c>
+      <c r="H236" t="s">
+        <v>22</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:52">
+      <c r="A237" t="s">
+        <v>183</v>
+      </c>
+      <c r="B237" t="s">
+        <v>28</v>
+      </c>
+      <c r="C237" t="s">
+        <v>15</v>
+      </c>
+      <c r="D237">
+        <v>14067</v>
+      </c>
+      <c r="E237" t="s">
+        <v>184</v>
+      </c>
+      <c r="G237">
+        <v>2021</v>
+      </c>
+      <c r="H237" t="s">
+        <v>22</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+      <c r="L237">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -8857,6 +9727,30 @@
     <mergeCell ref="E211:F211"/>
     <mergeCell ref="E212:F212"/>
     <mergeCell ref="E213:F213"/>
+    <mergeCell ref="E214:F214"/>
+    <mergeCell ref="E215:F215"/>
+    <mergeCell ref="E216:F216"/>
+    <mergeCell ref="E217:F217"/>
+    <mergeCell ref="E218:F218"/>
+    <mergeCell ref="E219:F219"/>
+    <mergeCell ref="E220:F220"/>
+    <mergeCell ref="E221:F221"/>
+    <mergeCell ref="E222:F222"/>
+    <mergeCell ref="E223:F223"/>
+    <mergeCell ref="E224:F224"/>
+    <mergeCell ref="E225:F225"/>
+    <mergeCell ref="E226:F226"/>
+    <mergeCell ref="E227:F227"/>
+    <mergeCell ref="E228:F228"/>
+    <mergeCell ref="E229:F229"/>
+    <mergeCell ref="E230:F230"/>
+    <mergeCell ref="E231:F231"/>
+    <mergeCell ref="E232:F232"/>
+    <mergeCell ref="E233:F233"/>
+    <mergeCell ref="E234:F234"/>
+    <mergeCell ref="E235:F235"/>
+    <mergeCell ref="E236:F236"/>
+    <mergeCell ref="E237:F237"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
